--- a/output/fit_clients/fit_round_89.xlsx
+++ b/output/fit_clients/fit_round_89.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7795886982.213616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004369802533311886</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5289922011912407</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.733283605164462</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9272658512026127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.733283605164462</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5105253394.768108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003941122813255042</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.328607712136757</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8858482416185244</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.328607712136757</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5661765800.084144</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003061074948323998</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.567683330945931</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9228301090626212</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.567683330945931</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3430913469.597044</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004601956053031001</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.422703427206239</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8220331234576647</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.422703427206239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7800511423.692728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002376224652942674</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.250711241892863</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.856620352321499</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.250711241892863</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6977923883.770667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001005308156193228</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.440683823628802</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9050794082156536</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.440683823628802</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6706848984.435402</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002637062545321503</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.16209609039226</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9481991408566365</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.16209609039226</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5144282266.497182</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003944621570360835</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.744098532762292</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8863270425296447</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.744098532762292</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>2939686563.367873</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005055857971034431</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1603235805490343</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.381568556586337</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.3298159191459551</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.381568556586337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4953946348.913581</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009803895894917797</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.247075803997813</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7667858403132186</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.247075803997813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7137730296.729272</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001450293187773627</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.630310101122092</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9571769263872059</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.630310101122092</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5685582414.937462</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004609052271895839</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>21</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.270302142692361</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.003444393516692</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.270302142692361</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8978656392.755768</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002340090601687188</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8739257713431942</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.52891066714667</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.169411142253816</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.52891066714667</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6229978902.903882</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003510834699022574</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.136652888895996</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9793551631823579</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.136652888895996</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6932018461.787843</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004041043604776176</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.847103358883164</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9034565201827315</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.847103358883164</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6878872077.162252</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002570384143981827</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.697330578875384</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9252744152290059</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.697330578875384</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5169653314.348799</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008794575711377036</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.562700599523762</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9009530235122366</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.562700599523762</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3457465130.186625</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001583261484288143</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.477808454059937</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8939906069795438</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.477808454059937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4438580026.423375</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009690348015101692</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.627305481586742</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8008817543033967</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.627305481586742</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8198427288.830414</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005851855635653197</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.703873588409428</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8571154806396418</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.703873588409428</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5661268901.899923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003803200451205428</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.458064145734015</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7843188789055787</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.458064145734015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5858643353.529581</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001737961875790181</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.143040299665565</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8468205484846872</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.143040299665565</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7950398190.651296</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004210899768703043</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.717475101350542</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.969223060677595</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.717475101350542</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5444845424.071309</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003975436543778909</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8956028142357187</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.838439170097119</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.241533294251141</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.838439170097119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3686589907.880109</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001255511161563106</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>21</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.133588547401012</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.801139348295525</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.133588547401012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8355633847.001959</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003199983906219332</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.562096375716557</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9199806052732051</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.562096375716557</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7144832715.480178</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004432860545661392</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.716919974954131</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8972166565576625</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.716919974954131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6223245975.152941</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00119085863451247</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3173185665553229</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.715740954331318</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.6925591579558998</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.715740954331318</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8928365232.771343</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003117735678540918</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>21</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.172093316932499</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8529989645733806</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.172093316932499</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5742030691.407215</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002519456302936937</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.483958766253738</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9453654099318946</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.483958766253738</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4169408729.176258</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001215108541217769</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.641353579552504</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.897037700984176</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.641353579552504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5432716743.355054</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002668439180690467</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.08008653512931</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8455876708900825</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.08008653512931</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7172016594.132854</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004619288207272719</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>17</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.685143764516187</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7369745321189993</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.685143764516187</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5528490093.566317</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002675950744057281</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.604435728644371</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9141421040220464</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.604435728644371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6657723294.476241</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003063825776033243</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.607120201406774</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9976231877881595</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.607120201406774</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4330092469.810646</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004423409347512479</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.527617473498759</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9860287457153918</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.527617473498759</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4177770705.752405</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003426862777972926</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.456223436410486</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.891344791075349</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.456223436410486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4944281565.132468</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002540432120085664</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.070548963557317</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8600533168124838</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.070548963557317</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6849507849.384001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.0045715831980841</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>19</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.2914467604136188</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.600975241714372</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.6375594005993749</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.600975241714372</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6081733939.738335</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001449828677980857</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.00699210186336</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9244810532508091</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.00699210186336</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4795741183.850264</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004699981317814069</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.369483885328731</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9554745026818959</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.369483885328731</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6141808861.611227</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.005120459100746177</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>17</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.65769107537445</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9013601463370052</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.65769107537445</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7499988116.670994</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002164020082938981</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.373392938843531</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9055986050731697</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.373392938843531</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5388226525.89807</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001673220515776327</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>16</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.893325407900537</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.941025829011465</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.893325407900537</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>6920535714.107324</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00409742931693013</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>20</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.379390709220585</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7931713400480033</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.379390709220585</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8881983513.336214</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002787354203630738</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8135628922684004</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.327822433795747</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.128843658268151</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.327822433795747</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6028427083.261621</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003313009222146591</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.034029559863768</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9352083979670359</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.034029559863768</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4030270616.374787</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005559468562159414</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>21</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.434065859777908</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8483085651105509</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.434065859777908</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8514165088.353258</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002856536190123794</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.32639487603866</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.001408590798309</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.32639487603866</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4917183689.335649</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003521747874261193</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.422037837759063</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9308706566397092</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.422037837759063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5963948533.621185</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002078718442063687</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>18</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.789132108275896</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.404328031438904</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.059048219505167</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.404328031438904</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7206025300.129733</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002282392660320941</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.486750550017151</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8962193433135228</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.486750550017151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5431903482.409475</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004064163129200245</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>21</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.221967903772201</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8208188003942951</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.221967903772201</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6498900471.815437</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002973265837172235</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.345354249120383</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8802001717078106</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.345354249120383</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4377391110.185515</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002373066194536784</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9737529844583097</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.446374516177373</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.265046149208811</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.446374516177373</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7605987445.000043</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003151746355157888</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.429191545247936</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8047377080914226</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.429191545247936</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5658259532.210255</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002326256747854887</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.26255658302317</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8150436586464177</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.26255658302317</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7201777917.415233</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003859389013308464</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.7937219858846886</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.372992238775741</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.107252888835886</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.372992238775741</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4866461204.387306</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002795431367338717</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.232341995310204</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8019260848353708</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.232341995310204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5348211245.824315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003979627687179309</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.796934827468461</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9024025210922306</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.796934827468461</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5260039677.436882</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002599689586490839</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8491757007126727</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.991940089432013</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.130686830271895</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-2.991940089432013</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8529332232.613042</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005310131788859296</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>25</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.087284774150282</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8616913616623841</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.087284774150282</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3433166919.640856</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004519008364497254</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.649574221463548</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8781136191463637</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.649574221463548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4859133015.804706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005194854947691799</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>24</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.08483947189567936</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.615703795918916</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-0.2849188192722104</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.615703795918916</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4448932132.9276</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003167187735529116</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>17</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.574341950789655</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.290018503809794</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.574341950789655</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7004326967.300942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004731393517115682</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.778194960964958</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8609060537699851</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.778194960964958</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5708476854.842655</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002771546406349397</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.221024110280197</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7109385978140516</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.221024110280197</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4820782892.468675</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001188789989486003</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.058879260590432</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9666764386562356</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.058879260590432</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5910565178.731452</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002433462805073884</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.594793740280373</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8754198189096641</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.594793740280373</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4388797768.902028</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003738250106258958</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.643221401593732</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7832510725459647</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.643221401593732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7293088895.065939</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.00204176525370118</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.534952449581638</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.032380328159463</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.534952449581638</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7600308121.432259</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009986714618909441</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.759480583968869</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3966148897690515</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.759480583968869</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4916085997.787766</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003967334933288301</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.407854118866489</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8493621366149483</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.407854118866489</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5337586578.649415</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003957449013530248</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.8343608900809287</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.554809440772689</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.124126411835628</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.554809440772689</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6510402825.61264</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002369085008803418</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.499891833363216</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9076851899014842</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.499891833363216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6823958278.865906</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003780323648606738</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.150239707881222</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9775858310212229</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.150239707881222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5786215396.263968</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004136891384877737</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>17</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.574705933866308</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9068764404861555</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.574705933866308</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7876119583.090494</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001722109023706795</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.613271183756624</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9288979304792907</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.613271183756624</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5971037346.593048</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003217186511747985</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.599170710484606</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9408552062082562</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.599170710484606</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5981392269.216081</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004650175009760877</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.179683585466212</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9669492046515595</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.179683585466212</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5480146245.132269</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005979124259738364</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.433377221652341</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8699412425255796</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.433377221652341</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7744588321.553213</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003249619770203696</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>23</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.137853129166023</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8107135449163739</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.137853129166023</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6251310143.457721</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004502358643477197</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>20</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.2460137110965258</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.327521944196189</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.5344039949081943</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.327521944196189</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4504459487.507957</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002827618858815865</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.193836395611858</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8832948397300768</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.193836395611858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8511618564.430072</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001902081023727792</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>20</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1718289592293647</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.61789533082418</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.3846254084100317</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.61789533082418</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4019486273.750597</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001286363107835015</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.11015431117139</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9413546714090569</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.11015431117139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8087483888.036705</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004893269437582756</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.543908334415089</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8354663551982674</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.543908334415089</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6827223200.981752</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004371381183559202</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.883626758056196</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9423651050260352</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.883626758056196</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6911120433.065644</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002338033070009673</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.539960782644045</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9282188185426439</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.539960782644045</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6879625173.057516</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004753996542010765</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.743326527360259</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.7999650359349667</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.743326527360259</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4917652252.787647</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003058895768748329</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>14</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.7883593414966471</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.851706031593445</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.291753654981503</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.851706031593445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5059438701.851183</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001571523781759857</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>19</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.06645709877088189</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.427944943180376</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.2905502340148262</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.427944943180376</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5298441660.501917</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001470475618905824</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.742865573472782</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9851795908430955</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.742865573472782</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7279341236.747068</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002561885543286843</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.712107138176965</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9078620466701028</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.712107138176965</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6584867270.341221</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00244328034358648</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.08116332184811234</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.215953913574709</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.3259022359926796</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.215953913574709</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6749643371.406916</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.006051447127675171</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.751640358993207</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8773952005671773</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.751640358993207</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5946511301.02944</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003801171522729129</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.35473695001942</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8418506746456147</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.35473695001942</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3778922934.529315</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005041164847634126</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.301867005243361</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8673410126138967</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.301867005243361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5612931051.608717</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003624324061332404</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.62192392387246</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8156905173815003</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.62192392387246</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7009113780.436224</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001171718438576836</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5279989080153119</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.638956198541452</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8630342099603832</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.638956198541452</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_89.xlsx
+++ b/output/fit_clients/fit_round_89.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7795886982.213616</v>
+        <v>2047078706.819263</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004369802533311886</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22</v>
+        <v>0.1053908561045451</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0413317288086459</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1023539355.308259</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5105253394.768108</v>
+        <v>1930654672.765141</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003941122813255042</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
+        <v>0.1448839344306355</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04888268592575803</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>965327365.6244339</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5661765800.084144</v>
+        <v>4194909956.734291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003061074948323998</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
+        <v>0.122188071400687</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03030416443416579</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2097455006.272088</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3430913469.597044</v>
+        <v>3412180601.044075</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004601956053031001</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08759484473931303</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04418052054169717</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1706090343.034729</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7800511423.692728</v>
+        <v>1969100343.217481</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002376224652942674</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.1044637973895085</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04801210695929548</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>984550204.4734434</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6977923883.770667</v>
+        <v>2058573228.771535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001005308156193228</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.06982396546978335</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03940607268248846</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1029286669.806171</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6706848984.435402</v>
+        <v>3289420492.791975</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002637062545321503</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>23</v>
+        <v>0.1784626174910387</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02958709671727911</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1644710333.422787</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5144282266.497182</v>
+        <v>1685127252.345089</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003944621570360835</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>28</v>
+        <v>0.1580776902525879</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03134329332905109</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>842563696.3803321</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>2939686563.367873</v>
+        <v>4284593585.488115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005055857971034431</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1856617883963902</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03513832134797049</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2142296836.599659</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4953946348.913581</v>
+        <v>2708795598.105576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009803895894917797</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1473230958642761</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03385250667391933</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1354397721.563132</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7137730296.729272</v>
+        <v>2949966485.279038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001450293187773627</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1570871627826232</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03565802690879398</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>25</v>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1474983256.00101</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5685582414.937462</v>
+        <v>3292252182.768675</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004609052271895839</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19</v>
+        <v>0.06772552611395616</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02335171931054935</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1646126182.190628</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8978656392.755768</v>
+        <v>3510493983.458081</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002340090601687188</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>21</v>
+        <v>0.1462250798590621</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03443042047294954</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1755246989.134719</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6229978902.903882</v>
+        <v>1795117542.461555</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003510834699022574</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>26</v>
+        <v>0.1053562189552887</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04795103133915669</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>897558923.5412667</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6932018461.787843</v>
+        <v>2190994049.364396</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004041043604776176</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>28</v>
+        <v>0.1163255600268616</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04751402001444309</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1095497083.02853</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6878872077.162252</v>
+        <v>3204658180.609686</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002570384143981827</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19</v>
+        <v>0.1675957396050026</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0414477462002124</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1602329164.165114</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5169653314.348799</v>
+        <v>2668073540.183047</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008794575711377036</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25</v>
+        <v>0.1154222310463279</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03248304236106752</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1334036824.267375</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3457465130.186625</v>
+        <v>1254174536.255731</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001583261484288143</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1827420786389487</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02525932818716323</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>627087359.1383123</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4438580026.423375</v>
+        <v>1804738513.919902</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009690348015101692</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1174087545528431</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02155528701590168</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>902369304.0452257</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8198427288.830414</v>
+        <v>1687694087.052313</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005851855635653197</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17</v>
+        <v>0.08576620455431562</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03995287817171821</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>843847109.2675951</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5661268901.899923</v>
+        <v>3938913826.390666</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003803200451205428</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>0.09865709353846763</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04194001400030239</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1969456918.41749</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5858643353.529581</v>
+        <v>1349246134.062107</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001737961875790181</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1421191020268947</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04574032015898406</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>674623078.2935798</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7950398190.651296</v>
+        <v>2666778545.149581</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004210899768703043</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
+        <v>0.1021843903359482</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03206361696386266</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1333389330.161786</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5444845424.071309</v>
+        <v>1297833596.43067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003975436543778909</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>20</v>
+        <v>0.08080405066683922</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02206035480202468</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>648916793.6016617</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3686589907.880109</v>
+        <v>1222028262.47252</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001255511161563106</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.112984597213112</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02903686566787941</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>611014157.5633507</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8355633847.001959</v>
+        <v>2917160815.326925</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003199983906219332</v>
-      </c>
-      <c r="G27" t="b">
+        <v>0.1444998946204123</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01764197303956899</v>
+      </c>
+      <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>23</v>
+      <c r="I27" t="n">
+        <v>21</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1458580471.506512</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7144832715.480178</v>
+        <v>2866789834.550026</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004432860545661392</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>23</v>
+        <v>0.1211034316358622</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03367950277127967</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1433394916.882929</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5538972195.47055</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1005751894177304</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03787126412117316</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
-        <v>504</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6223245975.152941</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.00119085863451247</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>23</v>
+      <c r="I29" t="n">
+        <v>40</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2769486007.81617</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8928365232.771343</v>
+        <v>1485486707.363065</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003117735678540918</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>28</v>
+        <v>0.1124861165426547</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0390190043406208</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>742743332.4443294</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5742030691.407215</v>
+        <v>987884840.7592642</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002519456302936937</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>18</v>
+        <v>0.09412495372265459</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04080561198734352</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>493942421.6916522</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4169408729.176258</v>
+        <v>1673898448.356368</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001215108541217769</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1074865296818821</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03675696033801057</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>836949328.4660547</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5432716743.355054</v>
+        <v>3082616199.391881</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002668439180690467</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.1516300867977565</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04671747679197084</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1541308088.198003</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7172016594.132854</v>
+        <v>1533398521.325516</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004619288207272719</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>28</v>
+        <v>0.1005321359472446</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02110953481126813</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>766699210.9663981</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5528490093.566317</v>
+        <v>932210163.5667298</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002675950744057281</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>23</v>
+        <v>0.1041102327624745</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0427869113897387</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>466105115.1515576</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6657723294.476241</v>
+        <v>2307811924.075109</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003063825776033243</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>25</v>
+        <v>0.1152405934513447</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02675554925784253</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1153905999.324886</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4330092469.810646</v>
+        <v>2322001167.985212</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004423409347512479</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.09113414167266981</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02844969607374116</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1161000655.490489</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4177770705.752405</v>
+        <v>1604111703.571655</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003426862777972926</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08180853403287178</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03771998368652873</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>802055886.2564732</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4944281565.132468</v>
+        <v>1660568439.323346</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002540432120085664</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1463537328929828</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03030010261229277</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>830284265.6440902</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6849507849.384001</v>
+        <v>1590277477.062725</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0045715831980841</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.106465804993014</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04914907528920514</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>795138682.0438136</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6081733939.738335</v>
+        <v>2463985176.028244</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001449828677980857</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>25</v>
+        <v>0.1012319798883318</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04484750836149104</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1231992616.777105</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4795741183.850264</v>
+        <v>3732041879.097071</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004699981317814069</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1000517092734792</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04090321719203779</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1866020950.306467</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6141808861.611227</v>
+        <v>2680409435.412449</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005120459100746177</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20</v>
+        <v>0.1837092078091136</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01585614723188757</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1340204748.163116</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7499988116.670994</v>
+        <v>2026706628.066177</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002164020082938981</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>24</v>
+        <v>0.0881115407995948</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03232237791366039</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1013353425.625045</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5388226525.89807</v>
+        <v>2055706866.314514</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001673220515776327</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1426228610558633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0465502155710459</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1027853429.58298</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>6920535714.107324</v>
+        <v>5555467853.670455</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00409742931693013</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>14</v>
+        <v>0.137295184721448</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06074046185979393</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2777733985.346975</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8881983513.336214</v>
+        <v>3695729613.11823</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002787354203630738</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.154930924767242</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0501347312027691</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1847864788.408876</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6028427083.261621</v>
+        <v>3375132661.560724</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003313009222146591</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16</v>
+        <v>0.07001723734084557</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03352777839715042</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1687566401.388541</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4030270616.374787</v>
+        <v>1533917639.59723</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005559468562159414</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1448645977466888</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04008496100467004</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>766958846.4737099</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8514165088.353258</v>
+        <v>3411563955.094935</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002856536190123794</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1521142759693539</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03780083654073753</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>24</v>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1705782008.037044</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4917183689.335649</v>
+        <v>1061951753.363428</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003521747874261193</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1313983421396118</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05254398547015826</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>530975950.5304854</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5963948533.621185</v>
+        <v>5283676749.648968</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002078718442063687</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>21</v>
+        <v>0.1037939751154859</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04650901700025771</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>37</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2641838355.674439</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7206025300.129733</v>
+        <v>2931052099.731569</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002282392660320941</v>
-      </c>
-      <c r="G53" t="b">
+        <v>0.1757132769604587</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03362806170574085</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
-        <v>16</v>
+      <c r="I53" t="n">
+        <v>25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1465526086.984784</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5431903482.409475</v>
+        <v>3763539952.005275</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004064163129200245</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22</v>
+        <v>0.1463381586693671</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03631618793541295</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>29</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1881770021.446832</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6498900471.815437</v>
+        <v>3952944719.964986</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002973265837172235</v>
-      </c>
-      <c r="G55" t="b">
+        <v>0.1935692902342287</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02905176284098677</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>28</v>
+      <c r="I55" t="n">
+        <v>23</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1976472332.726525</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4377391110.185515</v>
+        <v>1299340978.792573</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002373066194536784</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1501653551110629</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03663470426765759</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>649670561.3161917</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7605987445.000043</v>
+        <v>4454422922.060234</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003151746355157888</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1176725775763676</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02022929963921487</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2227211587.454122</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5658259532.210255</v>
+        <v>1513323951.266166</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002326256747854887</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>19</v>
+        <v>0.1784762495392385</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03389799080786501</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>756662005.4880198</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7201777917.415233</v>
+        <v>4863578513.363276</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003859389013308464</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.08213133601052396</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04598261481059226</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2431789190.911144</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4866461204.387306</v>
+        <v>3006163928.499113</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002795431367338717</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1809519064866719</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02622473206672652</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1503082035.167028</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5348211245.824315</v>
+        <v>3191436737.131033</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003979627687179309</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1806673841225705</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02340672405215109</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1595718330.912131</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5260039677.436882</v>
+        <v>1343351616.503336</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002599689586490839</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15</v>
+        <v>0.1414309947781622</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03938156969907143</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>671675767.6914731</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8529332232.613042</v>
+        <v>4786970806.611772</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005310131788859296</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.09774690004352331</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03833437062511145</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2393485430.494257</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3433166919.640856</v>
+        <v>5323499718.354557</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004519008364497254</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1615665677944499</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03089068095391127</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2661749988.059655</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4859133015.804706</v>
+        <v>4510273222.965256</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005194854947691799</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>23</v>
+        <v>0.1218366617275846</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02738172645342683</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>32</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2255136599.53281</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4448932132.9276</v>
+        <v>5583503596.154801</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003167187735529116</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>19</v>
+        <v>0.1218536862014857</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03842562261725661</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>26</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2791751856.402625</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7004326967.300942</v>
+        <v>2347769435.411047</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004731393517115682</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>17</v>
+        <v>0.09895592251326063</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.05093509215782405</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1173884791.10543</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5708476854.842655</v>
+        <v>4999589382.437529</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002771546406349397</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>19</v>
+        <v>0.1543699451820635</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04564045629440134</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2499794747.50481</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4820782892.468675</v>
+        <v>2168114083.838362</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001188789989486003</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1191659162336075</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04516498567271024</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1084057068.522665</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5910565178.731452</v>
+        <v>3341250197.874125</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002433462805073884</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.09098982577043832</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03304339706860965</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1670625098.103495</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4388797768.902028</v>
+        <v>4553340612.852672</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003738250106258958</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1553890926663355</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02318517818279239</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>32</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2276670378.69349</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7293088895.065939</v>
+        <v>1461344053.191124</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00204176525370118</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.07188200996786261</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03353584683157429</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>730672059.7427984</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7600308121.432259</v>
+        <v>3223285713.819258</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009986714618909441</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.07655518023796611</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03445315708290779</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>34</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1611642832.377374</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4916085997.787766</v>
+        <v>3774528036.132828</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003967334933288301</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>19</v>
+        <v>0.1774930540188952</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0290477697944907</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1887264016.453276</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5337586578.649415</v>
+        <v>1990095892.006471</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003957449013530248</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>17</v>
+        <v>0.1555978648061976</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03310802524900897</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>995047911.0890251</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6510402825.61264</v>
+        <v>5201900147.15443</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002369085008803418</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0.09141277863615682</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02436524270635405</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="H76" t="n">
-        <v>18</v>
+      <c r="I76" t="n">
+        <v>19</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2600950108.633538</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6823958278.865906</v>
+        <v>1882542463.878919</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003780323648606738</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1782187261428612</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02423656369565983</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>941271276.0122157</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5786215396.263968</v>
+        <v>3986452142.632584</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004136891384877737</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1031083022059367</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04800235959409523</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1993226037.94699</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7876119583.090494</v>
+        <v>1676146213.714815</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001722109023706795</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>19</v>
+        <v>0.1595706952222605</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03103523506715159</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>838073171.7960292</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4073498806.778233</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.07097989077510382</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03568082260595528</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5971037346.593048</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.003217186511747985</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2036749406.439959</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5981392269.216081</v>
+        <v>5183195830.641602</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004650175009760877</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.09151680133580725</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03050900696598777</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2591597922.414853</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5480146245.132269</v>
+        <v>4618871316.543409</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005979124259738364</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.2100282342280608</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02958146092334223</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2309435663.409451</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7744588321.553213</v>
+        <v>2274345380.444504</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003249619770203696</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>24</v>
+        <v>0.1468563382362872</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03181852614745603</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1137172709.636068</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6251310143.457721</v>
+        <v>1998247294.829571</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004502358643477197</v>
-      </c>
-      <c r="G84" t="b">
+        <v>0.1148052865091679</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0429538302131591</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="n">
-        <v>23</v>
+      <c r="J84" t="n">
+        <v>999123652.599703</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4504459487.507957</v>
+        <v>3291985610.757807</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002827618858815865</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1706403987672062</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04434722790296334</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>33</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1645992897.674678</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8511618564.430072</v>
+        <v>2787331966.941895</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001902081023727792</v>
-      </c>
-      <c r="G86" t="b">
+        <v>0.1603909150318294</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01808287400827405</v>
+      </c>
+      <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>25</v>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1393666120.510411</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4019486273.750597</v>
+        <v>1111921869.71171</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001286363107835015</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1744505929497259</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02963040318871761</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>555960967.781491</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8087483888.036705</v>
+        <v>3122675595.594155</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004893269437582756</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1106056519354598</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03799607932146896</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1561337840.282186</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6827223200.981752</v>
+        <v>2907103416.800729</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004371381183559202</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>20</v>
+        <v>0.1241337457279441</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04023573854227078</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1453551753.241477</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6911120433.065644</v>
+        <v>1584398437.184851</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002338033070009673</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>16</v>
+        <v>0.1378773922815345</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04259790337389371</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>792199212.6922356</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6879625173.057516</v>
+        <v>1564872819.501453</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004753996542010765</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.1463293484367318</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04991405658118422</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>782436439.9375851</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4917652252.787647</v>
+        <v>1955023531.509245</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003058895768748329</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07260907098946867</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04129428859004276</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>977511708.4634554</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5059438701.851183</v>
+        <v>3032635990.182286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001571523781759857</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>30</v>
+        <v>0.1229928406134213</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04451929938867632</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1516318058.146955</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5298441660.501917</v>
+        <v>2105710972.948227</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001470475618905824</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>29</v>
+        <v>0.1274542556985198</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02642543508890214</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1052855498.484082</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7279341236.747068</v>
+        <v>2241188866.921716</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002561885543286843</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>22</v>
+        <v>0.1003049718890316</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03665872686185424</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1120594488.300686</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6584867270.341221</v>
+        <v>1981488033.252218</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00244328034358648</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>24</v>
+        <v>0.123373560846628</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04106575132324338</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>990744005.4999505</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>498</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3545812382.603794</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1139814077969421</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02493324808587901</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
-        <v>514</v>
-      </c>
-      <c r="E97" t="n">
-        <v>6749643371.406916</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.006051447127675171</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>23</v>
+      <c r="I97" t="n">
+        <v>28</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1772906211.084162</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>5946511301.02944</v>
+        <v>3138729877.627466</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003801171522729129</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>33</v>
+        <v>0.1172646982496694</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02301430586939021</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>23</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1569364932.850706</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3778922934.529315</v>
+        <v>3012065470.903034</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005041164847634126</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1156906546859946</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02311988048854528</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1506032722.21112</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5612931051.608717</v>
+        <v>3005437366.101572</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003624324061332404</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1324442038317324</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02719739086316724</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1502718674.243167</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7009113780.436224</v>
+        <v>2430581300.86326</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001171718438576836</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>28</v>
+        <v>0.1427710859185041</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05359311632956767</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1215290664.185208</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_89.xlsx
+++ b/output/fit_clients/fit_round_89.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2047078706.819263</v>
+        <v>1676159967.541763</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1053908561045451</v>
+        <v>0.08797691718985913</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0413317288086459</v>
+        <v>0.04455068881788086</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1023539355.308259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1930654672.765141</v>
+        <v>2395880411.967766</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1448839344306355</v>
+        <v>0.1301098483058848</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04888268592575803</v>
+        <v>0.03858230252928705</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>965327365.6244339</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4194909956.734291</v>
+        <v>5064991119.420629</v>
       </c>
       <c r="F4" t="n">
-        <v>0.122188071400687</v>
+        <v>0.1006819753697149</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03030416443416579</v>
+        <v>0.03292097347307006</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2097455006.272088</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3412180601.044075</v>
+        <v>3328942390.584534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08759484473931303</v>
+        <v>0.06802554305344778</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04418052054169717</v>
+        <v>0.03672613991565594</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1706090343.034729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1969100343.217481</v>
+        <v>2320058930.633635</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1044637973895085</v>
+        <v>0.1279327495771605</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04801210695929548</v>
+        <v>0.03526163944480143</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>984550204.4734434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2058573228.771535</v>
+        <v>2845213109.342965</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06982396546978335</v>
+        <v>0.1008377713491169</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03940607268248846</v>
+        <v>0.04223672491496536</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1029286669.806171</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3289420492.791975</v>
+        <v>2630067974.568227</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1784626174910387</v>
+        <v>0.2043236410472568</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02958709671727911</v>
+        <v>0.02579834079867855</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1644710333.422787</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1685127252.345089</v>
+        <v>1582332076.695487</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1580776902525879</v>
+        <v>0.1372352526439708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03134329332905109</v>
+        <v>0.03545585229043858</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>842563696.3803321</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4284593585.488115</v>
+        <v>4954201227.791706</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1856617883963902</v>
+        <v>0.1882678289398311</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03513832134797049</v>
+        <v>0.03875422063987501</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2142296836.599659</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2708795598.105576</v>
+        <v>3202210789.277025</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1473230958642761</v>
+        <v>0.12418692829636</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03385250667391933</v>
+        <v>0.04068716448593334</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>37</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1354397721.563132</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2949966485.279038</v>
+        <v>2322772510.859967</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1570871627826232</v>
+        <v>0.1677008948342615</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03565802690879398</v>
+        <v>0.044465680883704</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1474983256.00101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3292252182.768675</v>
+        <v>4217420046.737028</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06772552611395616</v>
+        <v>0.09028813490333482</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02335171931054935</v>
+        <v>0.03113876161996812</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1646126182.190628</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3510493983.458081</v>
+        <v>2682508525.810118</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1462250798590621</v>
+        <v>0.1291450887349521</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03443042047294954</v>
+        <v>0.02994185901692108</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1755246989.134719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1795117542.461555</v>
+        <v>1456138626.421293</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1053562189552887</v>
+        <v>0.09663952366809524</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04795103133915669</v>
+        <v>0.0485768791927109</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>897558923.5412667</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2190994049.364396</v>
+        <v>1787270213.185233</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1163255600268616</v>
+        <v>0.09802039979940065</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04751402001444309</v>
+        <v>0.05030002423865657</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1095497083.02853</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3204658180.609686</v>
+        <v>4308878523.50633</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1675957396050026</v>
+        <v>0.174611965520587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0414477462002124</v>
+        <v>0.04588708581385467</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1602329164.165114</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2668073540.183047</v>
+        <v>2451664958.489545</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1154222310463279</v>
+        <v>0.1676450498319761</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03248304236106752</v>
+        <v>0.03203287831096546</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>29</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1334036824.267375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1254174536.255731</v>
+        <v>1306100107.585128</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1827420786389487</v>
+        <v>0.167028139029733</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02525932818716323</v>
+        <v>0.0202791736703849</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>627087359.1383123</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1804738513.919902</v>
+        <v>1800073986.589193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1174087545528431</v>
+        <v>0.1566950175883176</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02155528701590168</v>
+        <v>0.02157386450949607</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>902369304.0452257</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1687694087.052313</v>
+        <v>2055146286.77912</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08576620455431562</v>
+        <v>0.07341488406378031</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03995287817171821</v>
+        <v>0.02833100456355563</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>843847109.2675951</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3938913826.390666</v>
+        <v>3861788358.484846</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09865709353846763</v>
+        <v>0.138760982354648</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04194001400030239</v>
+        <v>0.05319732299077789</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1969456918.41749</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1349246134.062107</v>
+        <v>1483526800.757992</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1421191020268947</v>
+        <v>0.1715287968468655</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04574032015898406</v>
+        <v>0.04840439574760576</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>674623078.2935798</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2666778545.149581</v>
+        <v>3421592307.138618</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1021843903359482</v>
+        <v>0.1194174044721655</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03206361696386266</v>
+        <v>0.02916939732990029</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1333389330.161786</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1297833596.43067</v>
+        <v>1181196312.614679</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08080405066683922</v>
+        <v>0.1149523424206905</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02206035480202468</v>
+        <v>0.02087911415055864</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>648916793.6016617</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1222028262.47252</v>
+        <v>1378151981.333137</v>
       </c>
       <c r="F26" t="n">
-        <v>0.112984597213112</v>
+        <v>0.07608664400654118</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02903686566787941</v>
+        <v>0.02636040465908441</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>611014157.5633507</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2917160815.326925</v>
+        <v>3634247415.736995</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1444998946204123</v>
+        <v>0.107115929168271</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01764197303956899</v>
+        <v>0.02565616713371734</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>21</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1458580471.506512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2866789834.550026</v>
+        <v>3456733649.11415</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1211034316358622</v>
+        <v>0.1205766541168905</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03367950277127967</v>
+        <v>0.04155703240884901</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>29</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1433394916.882929</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5538972195.47055</v>
+        <v>5604277387.140906</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1005751894177304</v>
+        <v>0.1472683482561755</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03787126412117316</v>
+        <v>0.03444050639239749</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>40</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2769486007.81617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1485486707.363065</v>
+        <v>1884884097.433482</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1124861165426547</v>
+        <v>0.1194229925132205</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0390190043406208</v>
+        <v>0.03978903270507157</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>742743332.4443294</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>987884840.7592642</v>
+        <v>1302141906.83535</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09412495372265459</v>
+        <v>0.08278699854541981</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04080561198734352</v>
+        <v>0.04951947643092178</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>493942421.6916522</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1673898448.356368</v>
+        <v>1180377079.393494</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1074865296818821</v>
+        <v>0.1140085293996144</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03675696033801057</v>
+        <v>0.03274448128343527</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>836949328.4660547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3082616199.391881</v>
+        <v>2290543400.058586</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1516300867977565</v>
+        <v>0.1572940976810515</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04671747679197084</v>
+        <v>0.05054926050868477</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1541308088.198003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1533398521.325516</v>
+        <v>1053064348.923613</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1005321359472446</v>
+        <v>0.09756076685038685</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02110953481126813</v>
+        <v>0.02410433703271662</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>766699210.9663981</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>932210163.5667298</v>
+        <v>894836866.2340751</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1041102327624745</v>
+        <v>0.08570665954022348</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0427869113897387</v>
+        <v>0.02860154211822806</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>466105115.1515576</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2307811924.075109</v>
+        <v>2246274130.976721</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1152405934513447</v>
+        <v>0.1290577159349603</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02675554925784253</v>
+        <v>0.02788648526296143</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>22</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1153905999.324886</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2322001167.985212</v>
+        <v>2456876266.83029</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09113414167266981</v>
+        <v>0.08511636819776537</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02844969607374116</v>
+        <v>0.02769373434858174</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1161000655.490489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1604111703.571655</v>
+        <v>1513417423.603941</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08180853403287178</v>
+        <v>0.104267074231599</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03771998368652873</v>
+        <v>0.03349580810325931</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>802055886.2564732</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1660568439.323346</v>
+        <v>1864639979.657829</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1463537328929828</v>
+        <v>0.170701698324731</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03030010261229277</v>
+        <v>0.02562897719265523</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>830284265.6440902</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1590277477.062725</v>
+        <v>1765512711.898634</v>
       </c>
       <c r="F40" t="n">
-        <v>0.106465804993014</v>
+        <v>0.1020977329926739</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04914907528920514</v>
+        <v>0.05082595487748155</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>795138682.0438136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2463985176.028244</v>
+        <v>1964889577.047163</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1012319798883318</v>
+        <v>0.1583953093047956</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04484750836149104</v>
+        <v>0.02951271527755853</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1231992616.777105</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3732041879.097071</v>
+        <v>3315793134.671851</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1000517092734792</v>
+        <v>0.1241592229770515</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04090321719203779</v>
+        <v>0.03511571093912934</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1866020950.306467</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2680409435.412449</v>
+        <v>2545329274.027042</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1837092078091136</v>
+        <v>0.1243673523303513</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01585614723188757</v>
+        <v>0.02538454981505139</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1340204748.163116</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2026706628.066177</v>
+        <v>2053303670.987371</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0881115407995948</v>
+        <v>0.07296410733920548</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03232237791366039</v>
+        <v>0.02258695498902466</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1013353425.625045</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2055706866.314514</v>
+        <v>1818813035.933242</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1426228610558633</v>
+        <v>0.1493054767741861</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0465502155710459</v>
+        <v>0.05543945008512559</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1027853429.58298</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5555467853.670455</v>
+        <v>4059446420.236646</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137295184721448</v>
+        <v>0.1640635741447479</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06074046185979393</v>
+        <v>0.05086660372222684</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>32</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2777733985.346975</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3695729613.11823</v>
+        <v>5113245376.91157</v>
       </c>
       <c r="F47" t="n">
-        <v>0.154930924767242</v>
+        <v>0.1730324227885643</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0501347312027691</v>
+        <v>0.05672979611530887</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>24</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1847864788.408876</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3375132661.560724</v>
+        <v>3546463609.491086</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07001723734084557</v>
+        <v>0.09226640980657723</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03352777839715042</v>
+        <v>0.03092443500388521</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1687566401.388541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1533917639.59723</v>
+        <v>1564408934.340822</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1448645977466888</v>
+        <v>0.1682601667705503</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04008496100467004</v>
+        <v>0.03444143503800953</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>766958846.4737099</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3411563955.094935</v>
+        <v>2803252271.528592</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1521142759693539</v>
+        <v>0.1140015203884311</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03780083654073753</v>
+        <v>0.03296509930427492</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>30</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1705782008.037044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1061951753.363428</v>
+        <v>1021154500.727368</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1313983421396118</v>
+        <v>0.1300720799733879</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05254398547015826</v>
+        <v>0.05030366099270643</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>530975950.5304854</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5283676749.648968</v>
+        <v>4827828629.389408</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1037939751154859</v>
+        <v>0.124550696638713</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04650901700025771</v>
+        <v>0.04178449593781854</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>37</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2641838355.674439</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2931052099.731569</v>
+        <v>3735442455.062593</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1757132769604587</v>
+        <v>0.1809115764353755</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03362806170574085</v>
+        <v>0.03362436484162119</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>25</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1465526086.984784</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3763539952.005275</v>
+        <v>3253107799.248986</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1463381586693671</v>
+        <v>0.1105033294595136</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03631618793541295</v>
+        <v>0.04291042308814267</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>29</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1881770021.446832</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3952944719.964986</v>
+        <v>4025647452.135758</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1935692902342287</v>
+        <v>0.2019168806486766</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02905176284098677</v>
+        <v>0.03105296527349675</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>23</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1976472332.726525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1299340978.792573</v>
+        <v>1560362048.842504</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1501653551110629</v>
+        <v>0.1450127238818363</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03663470426765759</v>
+        <v>0.04781059423626131</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>649670561.3161917</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4454422922.060234</v>
+        <v>3055327262.759823</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1176725775763676</v>
+        <v>0.1631360323608826</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02022929963921487</v>
+        <v>0.02284808345800724</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2227211587.454122</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1513323951.266166</v>
+        <v>1404867376.56474</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1784762495392385</v>
+        <v>0.181028219658843</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03389799080786501</v>
+        <v>0.0302812725246722</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>756662005.4880198</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4863578513.363276</v>
+        <v>3743816525.87044</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08213133601052396</v>
+        <v>0.08063749985384491</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04598261481059226</v>
+        <v>0.04317538629179837</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2431789190.911144</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3006163928.499113</v>
+        <v>3637526306.993842</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1809519064866719</v>
+        <v>0.1749841987586518</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02622473206672652</v>
+        <v>0.0300869014715166</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1503082035.167028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3191436737.131033</v>
+        <v>2967825328.75064</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1806673841225705</v>
+        <v>0.1770983355262821</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02340672405215109</v>
+        <v>0.03036531273004354</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>31</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1595718330.912131</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1343351616.503336</v>
+        <v>1860442766.503286</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1414309947781622</v>
+        <v>0.1433962426288842</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03938156969907143</v>
+        <v>0.04404505044240875</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>671675767.6914731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4786970806.611772</v>
+        <v>5182423236.720447</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09774690004352331</v>
+        <v>0.07704435879668173</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03833437062511145</v>
+        <v>0.03954118606140672</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2393485430.494257</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5323499718.354557</v>
+        <v>5456531890.824725</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1615665677944499</v>
+        <v>0.1857801691555353</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03089068095391127</v>
+        <v>0.03136889091098143</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>28</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2661749988.059655</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4510273222.965256</v>
+        <v>4906797285.595918</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1218366617275846</v>
+        <v>0.1614333107226154</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02738172645342683</v>
+        <v>0.01966652608148067</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>32</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2255136599.53281</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5583503596.154801</v>
+        <v>3819418848.112768</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1218536862014857</v>
+        <v>0.1601906689119025</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03842562261725661</v>
+        <v>0.03929895131343033</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>26</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2791751856.402625</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2347769435.411047</v>
+        <v>3277617933.569633</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09895592251326063</v>
+        <v>0.09992024878670233</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05093509215782405</v>
+        <v>0.03589214816947727</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>29</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1173884791.10543</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4999589382.437529</v>
+        <v>5800813398.890258</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1543699451820635</v>
+        <v>0.1200843790299882</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04564045629440134</v>
+        <v>0.03966889296530531</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>28</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2499794747.50481</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2168114083.838362</v>
+        <v>2171364554.1257</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1191659162336075</v>
+        <v>0.1163688706154147</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04516498567271024</v>
+        <v>0.04617477014423248</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1084057068.522665</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3341250197.874125</v>
+        <v>2524851714.30147</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09098982577043832</v>
+        <v>0.07169036349791935</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03304339706860965</v>
+        <v>0.04854814752821534</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1670625098.103495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4553340612.852672</v>
+        <v>5202762318.520352</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1553890926663355</v>
+        <v>0.1301123953000844</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02318517818279239</v>
+        <v>0.02107992894775942</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>32</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2276670378.69349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1461344053.191124</v>
+        <v>2241895432.696945</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07188200996786261</v>
+        <v>0.07911485094388016</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03353584683157429</v>
+        <v>0.0519159079468213</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>730672059.7427984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3223285713.819258</v>
+        <v>3267368291.856041</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07655518023796611</v>
+        <v>0.07069426826260798</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03445315708290779</v>
+        <v>0.03453047015345422</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>34</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1611642832.377374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3774528036.132828</v>
+        <v>3157007246.438688</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1774930540188952</v>
+        <v>0.1371082672671722</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0290477697944907</v>
+        <v>0.03097638685461607</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>30</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1887264016.453276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1990095892.006471</v>
+        <v>1562642952.461838</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1555978648061976</v>
+        <v>0.1601185995262357</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03310802524900897</v>
+        <v>0.03145952126377878</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>995047911.0890251</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5201900147.15443</v>
+        <v>3658595317.469627</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09141277863615682</v>
+        <v>0.1220705784076636</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02436524270635405</v>
+        <v>0.02525788245449917</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2600950108.633538</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1882542463.878919</v>
+        <v>2151418173.52776</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1782187261428612</v>
+        <v>0.1200695249201254</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02423656369565983</v>
+        <v>0.02298542197092036</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>941271276.0122157</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3986452142.632584</v>
+        <v>4009316006.625132</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1031083022059367</v>
+        <v>0.09843779664391497</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04800235959409523</v>
+        <v>0.05006892692639851</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>31</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1993226037.94699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1676146213.714815</v>
+        <v>1596420174.301247</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1595706952222605</v>
+        <v>0.161371724328475</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03103523506715159</v>
+        <v>0.04071633368299938</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>838073171.7960292</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4073498806.778233</v>
+        <v>4394449088.71118</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07097989077510382</v>
+        <v>0.07108104270425891</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03568082260595528</v>
+        <v>0.02615864543760293</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2036749406.439959</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5183195830.641602</v>
+        <v>4943961294.7003</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09151680133580725</v>
+        <v>0.1373225336927063</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03050900696598777</v>
+        <v>0.02236718982200806</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2591597922.414853</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4618871316.543409</v>
+        <v>3763806416.129539</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2100282342280608</v>
+        <v>0.1565187269333709</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02958146092334223</v>
+        <v>0.02251418638171397</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2309435663.409451</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2274345380.444504</v>
+        <v>1831913717.225427</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1468563382362872</v>
+        <v>0.1361800099164892</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03181852614745603</v>
+        <v>0.04234603485939529</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1137172709.636068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1998247294.829571</v>
+        <v>1797246541.263399</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1148052865091679</v>
+        <v>0.1016501727168282</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0429538302131591</v>
+        <v>0.03266166678720297</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>999123652.599703</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3291985610.757807</v>
+        <v>3160281605.923007</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1706403987672062</v>
+        <v>0.1169583585260527</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04434722790296334</v>
+        <v>0.04315698425116732</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>33</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1645992897.674678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2787331966.941895</v>
+        <v>2492016468.916782</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1603909150318294</v>
+        <v>0.1297244258341184</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01808287400827405</v>
+        <v>0.02600704749175067</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1393666120.510411</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1111921869.71171</v>
+        <v>1191813750.132165</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1744505929497259</v>
+        <v>0.1880690420884498</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02963040318871761</v>
+        <v>0.04273454108371712</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>555960967.781491</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3122675595.594155</v>
+        <v>3281545736.726022</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1106056519354598</v>
+        <v>0.1382471373213311</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03799607932146896</v>
+        <v>0.03900256775658081</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>35</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1561337840.282186</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2907103416.800729</v>
+        <v>2835727561.233747</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1241337457279441</v>
+        <v>0.1132967245851752</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04023573854227078</v>
+        <v>0.03008847797084137</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>29</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1453551753.241477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1584398437.184851</v>
+        <v>1878236301.34322</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1378773922815345</v>
+        <v>0.1097175841756068</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04259790337389371</v>
+        <v>0.04796666112048448</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>792199212.6922356</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1564872819.501453</v>
+        <v>2051337211.917305</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1463293484367318</v>
+        <v>0.192971795900704</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04991405658118422</v>
+        <v>0.0572533461488041</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>782436439.9375851</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1955023531.509245</v>
+        <v>2277006384.367736</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07260907098946867</v>
+        <v>0.1103917345756615</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04129428859004276</v>
+        <v>0.03825048658753961</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>977511708.4634554</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3032635990.182286</v>
+        <v>4596054241.538477</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1229928406134213</v>
+        <v>0.1269264987460105</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04451929938867632</v>
+        <v>0.0352349057467785</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1516318058.146955</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2105710972.948227</v>
+        <v>1943384495.631916</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1274542556985198</v>
+        <v>0.1440277327043494</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02642543508890214</v>
+        <v>0.03200990479719684</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1052855498.484082</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2241188866.921716</v>
+        <v>2956354938.0066</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1003049718890316</v>
+        <v>0.113828517037134</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03665872686185424</v>
+        <v>0.04761117220634248</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>21</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1120594488.300686</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1981488033.252218</v>
+        <v>1699691388.794527</v>
       </c>
       <c r="F96" t="n">
-        <v>0.123373560846628</v>
+        <v>0.1132481707369718</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04106575132324338</v>
+        <v>0.03439952059745174</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>990744005.4999505</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3545812382.603794</v>
+        <v>4905190319.66094</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1139814077969421</v>
+        <v>0.107524860043161</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02493324808587901</v>
+        <v>0.02778492797993357</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>28</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1772906211.084162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3138729877.627466</v>
+        <v>3017548277.064344</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1172646982496694</v>
+        <v>0.09011828863780243</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02301430586939021</v>
+        <v>0.02084026698054822</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>23</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1569364932.850706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3012065470.903034</v>
+        <v>2238357781.257455</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1156906546859946</v>
+        <v>0.1159585928004277</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02311988048854528</v>
+        <v>0.02415844786393101</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1506032722.21112</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3005437366.101572</v>
+        <v>3968721606.897088</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1324442038317324</v>
+        <v>0.1285449584710964</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02719739086316724</v>
+        <v>0.02015665219080955</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>27</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1502718674.243167</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2430581300.86326</v>
+        <v>2988959971.04258</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1427710859185041</v>
+        <v>0.1640141454002561</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05359311632956767</v>
+        <v>0.03867296579528681</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>38</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1215290664.185208</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_89.xlsx
+++ b/output/fit_clients/fit_round_89.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1676159967.541763</v>
+        <v>2436028986.089865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08797691718985913</v>
+        <v>0.1028586796430618</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04455068881788086</v>
+        <v>0.030368291477169</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2395880411.967766</v>
+        <v>1597606880.525697</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1301098483058848</v>
+        <v>0.1486678591159288</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03858230252928705</v>
+        <v>0.04893429107649238</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5064991119.420629</v>
+        <v>5236537456.250525</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1006819753697149</v>
+        <v>0.1066680164768342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03292097347307006</v>
+        <v>0.0355422609141649</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3328942390.584534</v>
+        <v>3273484690.048683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06802554305344778</v>
+        <v>0.06802729980499511</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03672613991565594</v>
+        <v>0.03435337455963083</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2320058930.633635</v>
+        <v>2750659272.222055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1279327495771605</v>
+        <v>0.1389325033344737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03526163944480143</v>
+        <v>0.03570335323628295</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2845213109.342965</v>
+        <v>2614719258.45114</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1008377713491169</v>
+        <v>0.09813230385506146</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04223672491496536</v>
+        <v>0.04841507413403038</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2630067974.568227</v>
+        <v>3526329580.949128</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2043236410472568</v>
+        <v>0.1350287067498901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02579834079867855</v>
+        <v>0.02652303299107783</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1582332076.695487</v>
+        <v>1580023298.344232</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1372352526439708</v>
+        <v>0.1857954157518121</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03545585229043858</v>
+        <v>0.0285240527964287</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4954201227.791706</v>
+        <v>5624848531.971976</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1882678289398311</v>
+        <v>0.1856998904512551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03875422063987501</v>
+        <v>0.03568228729768719</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3202210789.277025</v>
+        <v>3437534649.662866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.12418692829636</v>
+        <v>0.1352441269396874</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04068716448593334</v>
+        <v>0.03027250847545867</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2322772510.859967</v>
+        <v>2332618242.810333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1677008948342615</v>
+        <v>0.1899389664995398</v>
       </c>
       <c r="G12" t="n">
-        <v>0.044465680883704</v>
+        <v>0.05366706420880787</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4217420046.737028</v>
+        <v>3711798459.988263</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09028813490333482</v>
+        <v>0.07887744004619542</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03113876161996812</v>
+        <v>0.02599948055449433</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2682508525.810118</v>
+        <v>2990214566.418629</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1291450887349521</v>
+        <v>0.1831857087459433</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02994185901692108</v>
+        <v>0.0268512933341399</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1456138626.421293</v>
+        <v>1332027546.725186</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09663952366809524</v>
+        <v>0.09550985679964874</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0485768791927109</v>
+        <v>0.04831267101345014</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1787270213.185233</v>
+        <v>2500782151.715261</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09802039979940065</v>
+        <v>0.09815423439621344</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05030002423865657</v>
+        <v>0.03308988813301925</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4308878523.50633</v>
+        <v>4220218336.14681</v>
       </c>
       <c r="F17" t="n">
-        <v>0.174611965520587</v>
+        <v>0.1113581716566563</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04588708581385467</v>
+        <v>0.03590090973704654</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2451664958.489545</v>
+        <v>3809788638.655481</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1676450498319761</v>
+        <v>0.1729920783996178</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03203287831096546</v>
+        <v>0.02955977732900586</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1306100107.585128</v>
+        <v>838050532.1390157</v>
       </c>
       <c r="F19" t="n">
-        <v>0.167028139029733</v>
+        <v>0.1300474167858865</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0202791736703849</v>
+        <v>0.01687282685414641</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1800073986.589193</v>
+        <v>2668739537.222173</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1566950175883176</v>
+        <v>0.1596056370935982</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02157386450949607</v>
+        <v>0.01950268815340191</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2055146286.77912</v>
+        <v>2203101065.402509</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07341488406378031</v>
+        <v>0.09990706905164355</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02833100456355563</v>
+        <v>0.0433015551120115</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3861788358.484846</v>
+        <v>2762451862.906425</v>
       </c>
       <c r="F22" t="n">
-        <v>0.138760982354648</v>
+        <v>0.1345314929302938</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05319732299077789</v>
+        <v>0.03694878725873754</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1483526800.757992</v>
+        <v>1264710895.890571</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1715287968468655</v>
+        <v>0.1326237809071089</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04840439574760576</v>
+        <v>0.05319660467208898</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3421592307.138618</v>
+        <v>3971467740.977571</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1194174044721655</v>
+        <v>0.1392303271773408</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02916939732990029</v>
+        <v>0.02749226471268289</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1181196312.614679</v>
+        <v>1029255836.296908</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1149523424206905</v>
+        <v>0.1206561731229113</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02087911415055864</v>
+        <v>0.0267070254024494</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1378151981.333137</v>
+        <v>1413532874.026704</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07608664400654118</v>
+        <v>0.08937836149097152</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02636040465908441</v>
+        <v>0.03769093030568606</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3634247415.736995</v>
+        <v>4651233612.454834</v>
       </c>
       <c r="F27" t="n">
-        <v>0.107115929168271</v>
+        <v>0.1509819387225081</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02565616713371734</v>
+        <v>0.02246928745352863</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3456733649.11415</v>
+        <v>2463657480.908325</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1205766541168905</v>
+        <v>0.1093197105962481</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04155703240884901</v>
+        <v>0.03158658658983435</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5604277387.140906</v>
+        <v>4002509009.622708</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1472683482561755</v>
+        <v>0.1372128275638758</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03444050639239749</v>
+        <v>0.04314301127106755</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1884884097.433482</v>
+        <v>1638734481.12798</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1194229925132205</v>
+        <v>0.1147830887972765</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03978903270507157</v>
+        <v>0.02662788794111641</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1302141906.83535</v>
+        <v>963397409.332171</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08278699854541981</v>
+        <v>0.07949932370530974</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04951947643092178</v>
+        <v>0.04930242859884025</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1180377079.393494</v>
+        <v>1753918835.703815</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1140085293996144</v>
+        <v>0.08341202481725168</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03274448128343527</v>
+        <v>0.03834514193505754</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2290543400.058586</v>
+        <v>1876606772.571219</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1572940976810515</v>
+        <v>0.2082956058101148</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05054926050868477</v>
+        <v>0.05978570473937635</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1053064348.923613</v>
+        <v>1256037458.092359</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09756076685038685</v>
+        <v>0.09462307420614985</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02410433703271662</v>
+        <v>0.01710392711574451</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>894836866.2340751</v>
+        <v>899450649.4004663</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08570665954022348</v>
+        <v>0.108572424555393</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02860154211822806</v>
+        <v>0.04140962376143503</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2246274130.976721</v>
+        <v>2843344141.116498</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1290577159349603</v>
+        <v>0.1314606159640697</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02788648526296143</v>
+        <v>0.02077680294844241</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2456876266.83029</v>
+        <v>2903117236.163393</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08511636819776537</v>
+        <v>0.07639779399060644</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02769373434858174</v>
+        <v>0.03648112462003751</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1513417423.603941</v>
+        <v>1902020091.550723</v>
       </c>
       <c r="F38" t="n">
-        <v>0.104267074231599</v>
+        <v>0.105832957841898</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03349580810325931</v>
+        <v>0.02432603969453099</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1864639979.657829</v>
+        <v>1740988768.131986</v>
       </c>
       <c r="F39" t="n">
-        <v>0.170701698324731</v>
+        <v>0.194262189850388</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02562897719265523</v>
+        <v>0.0249717102001751</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1765512711.898634</v>
+        <v>1524505096.324868</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1020977329926739</v>
+        <v>0.1115232073979565</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05082595487748155</v>
+        <v>0.04408596286438943</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1964889577.047163</v>
+        <v>1904087507.718816</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1583953093047956</v>
+        <v>0.1150186735875895</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02951271527755853</v>
+        <v>0.03832742542391062</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3315793134.671851</v>
+        <v>3563574006.000401</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1241592229770515</v>
+        <v>0.1078306207747004</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03511571093912934</v>
+        <v>0.04501709247213929</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2545329274.027042</v>
+        <v>2355334846.865739</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1243673523303513</v>
+        <v>0.1722676352711506</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02538454981505139</v>
+        <v>0.02504214712587754</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2053303670.987371</v>
+        <v>1798802959.878674</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07296410733920548</v>
+        <v>0.08654177586303753</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02258695498902466</v>
+        <v>0.02478105872006944</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1818813035.933242</v>
+        <v>2442964361.363712</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1493054767741861</v>
+        <v>0.1647021296315693</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05543945008512559</v>
+        <v>0.04885813051118647</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4059446420.236646</v>
+        <v>4550076783.111984</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1640635741447479</v>
+        <v>0.1377814724738217</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05086660372222684</v>
+        <v>0.05568827530162804</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5113245376.91157</v>
+        <v>3695257761.86187</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1730324227885643</v>
+        <v>0.15179158587018</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05672979611530887</v>
+        <v>0.05219475312409987</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3546463609.491086</v>
+        <v>4178560297.108925</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09226640980657723</v>
+        <v>0.08658856580080508</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03092443500388521</v>
+        <v>0.0251851827318642</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1564408934.340822</v>
+        <v>1935234267.290808</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1682601667705503</v>
+        <v>0.1222049828397817</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03444143503800953</v>
+        <v>0.03391867408436081</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2803252271.528592</v>
+        <v>2953486032.75999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1140015203884311</v>
+        <v>0.1323324765841575</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03296509930427492</v>
+        <v>0.04696803707898443</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1021154500.727368</v>
+        <v>1089337379.732678</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1300720799733879</v>
+        <v>0.123172656005059</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05030366099270643</v>
+        <v>0.039187817992189</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4827828629.389408</v>
+        <v>3291426779.817278</v>
       </c>
       <c r="F52" t="n">
-        <v>0.124550696638713</v>
+        <v>0.1139906972934263</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04178449593781854</v>
+        <v>0.03873823512794366</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3735442455.062593</v>
+        <v>2810023866.407338</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1809115764353755</v>
+        <v>0.1415028608785404</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03362436484162119</v>
+        <v>0.03059738898228491</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3253107799.248986</v>
+        <v>3130186483.538222</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1105033294595136</v>
+        <v>0.1048882792964578</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04291042308814267</v>
+        <v>0.05214535616119932</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4025647452.135758</v>
+        <v>3041310149.628006</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2019168806486766</v>
+        <v>0.179707524736061</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03105296527349675</v>
+        <v>0.03103127467644918</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1560362048.842504</v>
+        <v>1562591534.429322</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1450127238818363</v>
+        <v>0.1244599732488538</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04781059423626131</v>
+        <v>0.03688356169782958</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3055327262.759823</v>
+        <v>3966991832.356627</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1631360323608826</v>
+        <v>0.155273649467172</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02284808345800724</v>
+        <v>0.0266576435961197</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1404867376.56474</v>
+        <v>1533041086.210655</v>
       </c>
       <c r="F58" t="n">
-        <v>0.181028219658843</v>
+        <v>0.2024012680582605</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0302812725246722</v>
+        <v>0.02853437634286336</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3743816525.87044</v>
+        <v>4588800771.718956</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08063749985384491</v>
+        <v>0.1040529265361523</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04317538629179837</v>
+        <v>0.03114832657798358</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3637526306.993842</v>
+        <v>2558366517.418031</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1749841987586518</v>
+        <v>0.153303681075097</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0300869014715166</v>
+        <v>0.02799722143287789</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2967825328.75064</v>
+        <v>3092364581.894346</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1770983355262821</v>
+        <v>0.1425781638791452</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03036531273004354</v>
+        <v>0.02786610727302545</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1860442766.503286</v>
+        <v>1752101247.272718</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1433962426288842</v>
+        <v>0.1181848552436436</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04404505044240875</v>
+        <v>0.0382558873287497</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5182423236.720447</v>
+        <v>4567285458.434596</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07704435879668173</v>
+        <v>0.08805517625850547</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03954118606140672</v>
+        <v>0.04118551957631072</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5456531890.824725</v>
+        <v>4395975906.035066</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1857801691555353</v>
+        <v>0.1730888802842571</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03136889091098143</v>
+        <v>0.03478252134331777</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4906797285.595918</v>
+        <v>3951850138.064713</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1614333107226154</v>
+        <v>0.1482738194171377</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01966652608148067</v>
+        <v>0.02004191893767402</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3819418848.112768</v>
+        <v>5442515147.524316</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1601906689119025</v>
+        <v>0.1566028819923155</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03929895131343033</v>
+        <v>0.04993033584614195</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3277617933.569633</v>
+        <v>3177234443.854077</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09992024878670233</v>
+        <v>0.08547722165699403</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03589214816947727</v>
+        <v>0.05017614281686378</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5800813398.890258</v>
+        <v>4844669845.625004</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1200843790299882</v>
+        <v>0.1197887616539843</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03966889296530531</v>
+        <v>0.03726904667040441</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2171364554.1257</v>
+        <v>2323083061.101217</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1163688706154147</v>
+        <v>0.1445587968115383</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04617477014423248</v>
+        <v>0.04035626111959525</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2524851714.30147</v>
+        <v>3487980100.244902</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07169036349791935</v>
+        <v>0.102108962433059</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04854814752821534</v>
+        <v>0.03275909006912549</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5202762318.520352</v>
+        <v>5250187659.232368</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1301123953000844</v>
+        <v>0.1264753866963653</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02107992894775942</v>
+        <v>0.02333781551443206</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2241895432.696945</v>
+        <v>1374133079.295633</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07911485094388016</v>
+        <v>0.07362820258658591</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0519159079468213</v>
+        <v>0.03511883900891317</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3267368291.856041</v>
+        <v>2921583521.619239</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07069426826260798</v>
+        <v>0.1005314874233034</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03453047015345422</v>
+        <v>0.04260354236732287</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3157007246.438688</v>
+        <v>3025517446.079139</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1371082672671722</v>
+        <v>0.1155484467903072</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03097638685461607</v>
+        <v>0.02442043759607477</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1562642952.461838</v>
+        <v>1842390649.118763</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1601185995262357</v>
+        <v>0.132830494938386</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03145952126377878</v>
+        <v>0.0323698580713612</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3658595317.469627</v>
+        <v>4337443982.474649</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1220705784076636</v>
+        <v>0.1015652272087395</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02525788245449917</v>
+        <v>0.02479442505290266</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2151418173.52776</v>
+        <v>2219111973.062167</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1200695249201254</v>
+        <v>0.142879779031373</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02298542197092036</v>
+        <v>0.03067414705348612</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4009316006.625132</v>
+        <v>3193281349.691106</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09843779664391497</v>
+        <v>0.108545132112356</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05006892692639851</v>
+        <v>0.04734360879607174</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1596420174.301247</v>
+        <v>1532331526.114697</v>
       </c>
       <c r="F79" t="n">
-        <v>0.161371724328475</v>
+        <v>0.1213122581005519</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04071633368299938</v>
+        <v>0.03771798306080977</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4394449088.71118</v>
+        <v>5116940936.733443</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07108104270425891</v>
+        <v>0.08769933565618973</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02615864543760293</v>
+        <v>0.02777771788187193</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4943961294.7003</v>
+        <v>3944912318.507513</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1373225336927063</v>
+        <v>0.1001190384700547</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02236718982200806</v>
+        <v>0.02348880172432403</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3763806416.129539</v>
+        <v>4331013479.217589</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1565187269333709</v>
+        <v>0.1596045438436168</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02251418638171397</v>
+        <v>0.02098098358212215</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1831913717.225427</v>
+        <v>2011763384.784699</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1361800099164892</v>
+        <v>0.1061953726389466</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04234603485939529</v>
+        <v>0.03585434174994413</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1797246541.263399</v>
+        <v>1808276543.600594</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1016501727168282</v>
+        <v>0.08481109733112092</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03266166678720297</v>
+        <v>0.03197592593232011</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3160281605.923007</v>
+        <v>2219877347.820545</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1169583585260527</v>
+        <v>0.1474889563446542</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04315698425116732</v>
+        <v>0.04667292689070481</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2492016468.916782</v>
+        <v>1696091930.791991</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1297244258341184</v>
+        <v>0.1567061563210722</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02600704749175067</v>
+        <v>0.01940929736424341</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1191813750.132165</v>
+        <v>1410658841.882867</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1880690420884498</v>
+        <v>0.1254811345953713</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04273454108371712</v>
+        <v>0.03911111557950359</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3281545736.726022</v>
+        <v>2720035087.771286</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1382471373213311</v>
+        <v>0.1415826612793274</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03900256775658081</v>
+        <v>0.02932897170103893</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2835727561.233747</v>
+        <v>2774024054.567078</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1132967245851752</v>
+        <v>0.1232786220122811</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03008847797084137</v>
+        <v>0.02739638292482686</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1878236301.34322</v>
+        <v>1696539613.241567</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1097175841756068</v>
+        <v>0.08855065589934454</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04796666112048448</v>
+        <v>0.04877116657863267</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2051337211.917305</v>
+        <v>1658626734.244885</v>
       </c>
       <c r="F91" t="n">
-        <v>0.192971795900704</v>
+        <v>0.1710288023205212</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0572533461488041</v>
+        <v>0.05678328408245743</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2277006384.367736</v>
+        <v>1829299036.891895</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1103917345756615</v>
+        <v>0.1055885908999132</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03825048658753961</v>
+        <v>0.02973806942567011</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4596054241.538477</v>
+        <v>3194775494.874667</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1269264987460105</v>
+        <v>0.1167619389494431</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0352349057467785</v>
+        <v>0.04903171037078649</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1943384495.631916</v>
+        <v>2391377010.580965</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1440277327043494</v>
+        <v>0.1265074712555724</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03200990479719684</v>
+        <v>0.03990359224214386</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2956354938.0066</v>
+        <v>2356695066.158118</v>
       </c>
       <c r="F95" t="n">
-        <v>0.113828517037134</v>
+        <v>0.1368579133676252</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04761117220634248</v>
+        <v>0.04319153996539014</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1699691388.794527</v>
+        <v>1516580244.42035</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1132481707369718</v>
+        <v>0.1123819994753259</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03439952059745174</v>
+        <v>0.04620826621601375</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4905190319.66094</v>
+        <v>3865537330.877546</v>
       </c>
       <c r="F97" t="n">
-        <v>0.107524860043161</v>
+        <v>0.1752648159463754</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02778492797993357</v>
+        <v>0.0229277198781062</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3017548277.064344</v>
+        <v>3569813949.329366</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09011828863780243</v>
+        <v>0.1297638611568521</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02084026698054822</v>
+        <v>0.02315887886947969</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2238357781.257455</v>
+        <v>2145490667.884848</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1159585928004277</v>
+        <v>0.09430410185281517</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02415844786393101</v>
+        <v>0.02953868536985027</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3968721606.897088</v>
+        <v>3454756904.13218</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1285449584710964</v>
+        <v>0.1739056497089328</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02015665219080955</v>
+        <v>0.02330459203267866</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2988959971.04258</v>
+        <v>3371895682.684219</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1640141454002561</v>
+        <v>0.2057078240934207</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03867296579528681</v>
+        <v>0.0461349249200458</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_89.xlsx
+++ b/output/fit_clients/fit_round_89.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2436028986.089865</v>
+        <v>2102647359.061929</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1028586796430618</v>
+        <v>0.1089934182349076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.030368291477169</v>
+        <v>0.03408095711652497</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1597606880.525697</v>
+        <v>2199454035.909287</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1486678591159288</v>
+        <v>0.1270584924105643</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04893429107649238</v>
+        <v>0.03795072515329407</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5236537456.250525</v>
+        <v>4324187058.334794</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1066680164768342</v>
+        <v>0.1666098277446564</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0355422609141649</v>
+        <v>0.02907705137875128</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3273484690.048683</v>
+        <v>2724253499.477881</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06802729980499511</v>
+        <v>0.07506995668125281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03435337455963083</v>
+        <v>0.04590100135713204</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>86</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2750659272.222055</v>
+        <v>2301778552.193233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1389325033344737</v>
+        <v>0.1098056268895087</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03570335323628295</v>
+        <v>0.04321321178905029</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2614719258.45114</v>
+        <v>2990818396.013812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09813230385506146</v>
+        <v>0.08937731332084609</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04841507413403038</v>
+        <v>0.04657483038905141</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3526329580.949128</v>
+        <v>3926862815.900834</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1350287067498901</v>
+        <v>0.2029961913043972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02652303299107783</v>
+        <v>0.02289706621946746</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1580023298.344232</v>
+        <v>2258295292.806705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1857954157518121</v>
+        <v>0.176650153210145</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0285240527964287</v>
+        <v>0.0335288265930393</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5624848531.971976</v>
+        <v>4251047158.081318</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1856998904512551</v>
+        <v>0.1316291283177395</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03568228729768719</v>
+        <v>0.04447185217172332</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>83</v>
+      </c>
+      <c r="J10" t="n">
+        <v>89</v>
+      </c>
+      <c r="K10" t="n">
+        <v>191.9163647758119</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3437534649.662866</v>
+        <v>2776472789.930152</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1352441269396874</v>
+        <v>0.1195904016762376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03027250847545867</v>
+        <v>0.04114822762689201</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>98.13785139036996</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2332618242.810333</v>
+        <v>2835362809.438984</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1899389664995398</v>
+        <v>0.1888132006093323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05366706420880787</v>
+        <v>0.05150012637082226</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3711798459.988263</v>
+        <v>4450102498.440701</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07887744004619542</v>
+        <v>0.08154437031916136</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02599948055449433</v>
+        <v>0.02838292711026787</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>88</v>
+      </c>
+      <c r="K13" t="n">
+        <v>167.8635272774494</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2990214566.418629</v>
+        <v>3459847847.172881</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1831857087459433</v>
+        <v>0.1482094709292062</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0268512933341399</v>
+        <v>0.03130649432352497</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>89</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1332027546.725186</v>
+        <v>1257071630.79004</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09550985679964874</v>
+        <v>0.06945453330036722</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04831267101345014</v>
+        <v>0.0352055973530749</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2500782151.715261</v>
+        <v>2311645624.92758</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09815423439621344</v>
+        <v>0.09757339255406695</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03308988813301925</v>
+        <v>0.04517003239904767</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4220218336.14681</v>
+        <v>4548455469.668431</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1113581716566563</v>
+        <v>0.1077314561965401</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03590090973704654</v>
+        <v>0.03774659882001052</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>43</v>
+      </c>
+      <c r="J17" t="n">
+        <v>88</v>
+      </c>
+      <c r="K17" t="n">
+        <v>153.3190816418905</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3809788638.655481</v>
+        <v>2499941680.372863</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1729920783996178</v>
+        <v>0.1648839411434916</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02955977732900586</v>
+        <v>0.02207612639204764</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>69.33533292639754</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>838050532.1390157</v>
+        <v>1207006675.274788</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1300474167858865</v>
+        <v>0.1175477372120621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01687282685414641</v>
+        <v>0.02261145927341797</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2668739537.222173</v>
+        <v>2527585761.241474</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1596056370935982</v>
+        <v>0.1137591836205126</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01950268815340191</v>
+        <v>0.03134062122466279</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2203101065.402509</v>
+        <v>2548938979.976529</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09990706905164355</v>
+        <v>0.07468168060264858</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0433015551120115</v>
+        <v>0.03451671726717969</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2762451862.906425</v>
+        <v>3054880154.806015</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1345314929302938</v>
+        <v>0.1103783346677545</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03694878725873754</v>
+        <v>0.0436321174039325</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>87</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1264710895.890571</v>
+        <v>1200568100.97481</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1326237809071089</v>
+        <v>0.1627469794528624</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05319660467208898</v>
+        <v>0.04699863948505616</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3971467740.977571</v>
+        <v>2747044480.731714</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1392303271773408</v>
+        <v>0.1350111323076876</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02749226471268289</v>
+        <v>0.0261232672951674</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1029255836.296908</v>
+        <v>1137728975.949911</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1206561731229113</v>
+        <v>0.1155427067026337</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0267070254024494</v>
+        <v>0.02807739117924891</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1413532874.026704</v>
+        <v>1101377802.344144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08937836149097152</v>
+        <v>0.1029560269082915</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03769093030568606</v>
+        <v>0.03000046473870902</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4651233612.454834</v>
+        <v>4632857272.964565</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1509819387225081</v>
+        <v>0.11123558489032</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02246928745352863</v>
+        <v>0.02422587717855118</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>35</v>
+      </c>
+      <c r="J27" t="n">
+        <v>89</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2463657480.908325</v>
+        <v>3285518036.316276</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1093197105962481</v>
+        <v>0.1469697005424563</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03158658658983435</v>
+        <v>0.04426594554941621</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4002509009.622708</v>
+        <v>4422640094.552894</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1372128275638758</v>
+        <v>0.09666574618656487</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04314301127106755</v>
+        <v>0.03808456393443702</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>83</v>
+      </c>
+      <c r="J29" t="n">
+        <v>89</v>
+      </c>
+      <c r="K29" t="n">
+        <v>202.406657620737</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1638734481.12798</v>
+        <v>1775526877.595038</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1147830887972765</v>
+        <v>0.08932067329459911</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02662788794111641</v>
+        <v>0.02560132880231653</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>963397409.332171</v>
+        <v>1259158251.765218</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07949932370530974</v>
+        <v>0.08638969629498694</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04930242859884025</v>
+        <v>0.04935770701514711</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1753918835.703815</v>
+        <v>1578494871.501826</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08341202481725168</v>
+        <v>0.1115949714924</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03834514193505754</v>
+        <v>0.0305578896003509</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1876606772.571219</v>
+        <v>2375171412.858487</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2082956058101148</v>
+        <v>0.1713551431288684</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05978570473937635</v>
+        <v>0.05279088399047004</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1256037458.092359</v>
+        <v>1303147592.795242</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09462307420614985</v>
+        <v>0.1103196063315721</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01710392711574451</v>
+        <v>0.02007839216103007</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>899450649.4004663</v>
+        <v>823877351.0566795</v>
       </c>
       <c r="F35" t="n">
-        <v>0.108572424555393</v>
+        <v>0.1068826310057531</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04140962376143503</v>
+        <v>0.03564252064994958</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2843344141.116498</v>
+        <v>2286824521.164571</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1314606159640697</v>
+        <v>0.1311030608407794</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02077680294844241</v>
+        <v>0.02575110356046554</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2903117236.163393</v>
+        <v>1896159443.642657</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07639779399060644</v>
+        <v>0.08166349065079237</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03648112462003751</v>
+        <v>0.04249042618378927</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1902020091.550723</v>
+        <v>1646706128.833551</v>
       </c>
       <c r="F38" t="n">
-        <v>0.105832957841898</v>
+        <v>0.1034868895092001</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02432603969453099</v>
+        <v>0.02924211542036638</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1740988768.131986</v>
+        <v>1396708454.386039</v>
       </c>
       <c r="F39" t="n">
-        <v>0.194262189850388</v>
+        <v>0.1823678510922892</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0249717102001751</v>
+        <v>0.0264993910976273</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1524505096.324868</v>
+        <v>1212465029.815456</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1115232073979565</v>
+        <v>0.1040922437977967</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04408596286438943</v>
+        <v>0.05349473878534916</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1904087507.718816</v>
+        <v>1873257241.47762</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1150186735875895</v>
+        <v>0.1398748810758091</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03832742542391062</v>
+        <v>0.04476952053582128</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3563574006.000401</v>
+        <v>3862784479.400983</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1078306207747004</v>
+        <v>0.09448565858589085</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04501709247213929</v>
+        <v>0.03408729841425364</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>88</v>
+      </c>
+      <c r="K42" t="n">
+        <v>172.7478237790979</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2355334846.865739</v>
+        <v>1961222672.890969</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1722676352711506</v>
+        <v>0.1338042598878999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02504214712587754</v>
+        <v>0.02417368278795349</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1798802959.878674</v>
+        <v>2331199469.325955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08654177586303753</v>
+        <v>0.06298186072526574</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02478105872006944</v>
+        <v>0.0353967837679616</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2442964361.363712</v>
+        <v>2085778080.265129</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1647021296315693</v>
+        <v>0.1213626814651468</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04885813051118647</v>
+        <v>0.05241841780063349</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4550076783.111984</v>
+        <v>5191994036.325482</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1377814724738217</v>
+        <v>0.1234026813884132</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05568827530162804</v>
+        <v>0.05172565502158072</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>51</v>
+      </c>
+      <c r="J46" t="n">
+        <v>88</v>
+      </c>
+      <c r="K46" t="n">
+        <v>172.038739344678</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3695257761.86187</v>
+        <v>4142186646.703773</v>
       </c>
       <c r="F47" t="n">
-        <v>0.15179158587018</v>
+        <v>0.128673008988278</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05219475312409987</v>
+        <v>0.0440177109836269</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>40</v>
+      </c>
+      <c r="J47" t="n">
+        <v>89</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4178560297.108925</v>
+        <v>2919436619.786485</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08658856580080508</v>
+        <v>0.09633951396736883</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0251851827318642</v>
+        <v>0.03232278140160277</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>34</v>
+      </c>
+      <c r="J48" t="n">
+        <v>88</v>
+      </c>
+      <c r="K48" t="n">
+        <v>99.9674243956222</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1935234267.290808</v>
+        <v>1442056134.146254</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1222049828397817</v>
+        <v>0.194661077189623</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03391867408436081</v>
+        <v>0.03338845830033983</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2953486032.75999</v>
+        <v>3281313956.185768</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1323324765841575</v>
+        <v>0.150096315582897</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04696803707898443</v>
+        <v>0.05128367366369743</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>87</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1089337379.732678</v>
+        <v>1001214508.28073</v>
       </c>
       <c r="F51" t="n">
-        <v>0.123172656005059</v>
+        <v>0.1789759082665995</v>
       </c>
       <c r="G51" t="n">
-        <v>0.039187817992189</v>
+        <v>0.03394697910965053</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3291426779.817278</v>
+        <v>3777165837.158368</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1139906972934263</v>
+        <v>0.09262233127763446</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03873823512794366</v>
+        <v>0.04649134808971448</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>68</v>
+      </c>
+      <c r="J52" t="n">
+        <v>89</v>
+      </c>
+      <c r="K52" t="n">
+        <v>173.0167219291675</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2810023866.407338</v>
+        <v>3073557056.910704</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1415028608785404</v>
+        <v>0.1767244369316786</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03059738898228491</v>
+        <v>0.02214632345008245</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>85</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3130186483.538222</v>
+        <v>3631988122.46569</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1048882792964578</v>
+        <v>0.1103347582153305</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05214535616119932</v>
+        <v>0.04634997029117757</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>40</v>
+      </c>
+      <c r="J54" t="n">
+        <v>88</v>
+      </c>
+      <c r="K54" t="n">
+        <v>150.9304624212971</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3041310149.628006</v>
+        <v>4902068635.863266</v>
       </c>
       <c r="F55" t="n">
-        <v>0.179707524736061</v>
+        <v>0.1357092976850375</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03103127467644918</v>
+        <v>0.02447869220597064</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>40</v>
+      </c>
+      <c r="J55" t="n">
+        <v>89</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1562591534.429322</v>
+        <v>1388140249.813868</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1244599732488538</v>
+        <v>0.1142116548718719</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03688356169782958</v>
+        <v>0.03762779289057668</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3966991832.356627</v>
+        <v>3493910718.804315</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155273649467172</v>
+        <v>0.1810800406929475</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0266576435961197</v>
+        <v>0.01914546275666766</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>33</v>
+      </c>
+      <c r="J57" t="n">
+        <v>89</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1533041086.210655</v>
+        <v>1256811323.444352</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2024012680582605</v>
+        <v>0.1873083004313091</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02853437634286336</v>
+        <v>0.03470136361017157</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4588800771.718956</v>
+        <v>5176214955.868855</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1040529265361523</v>
+        <v>0.0958893994357633</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03114832657798358</v>
+        <v>0.03461102897365292</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43</v>
+      </c>
+      <c r="J59" t="n">
+        <v>89</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2558366517.418031</v>
+        <v>3250518556.109019</v>
       </c>
       <c r="F60" t="n">
-        <v>0.153303681075097</v>
+        <v>0.1774218124016812</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02799722143287789</v>
+        <v>0.03317729173134035</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>87</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3092364581.894346</v>
+        <v>3167908906.889497</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1425781638791452</v>
+        <v>0.1693343044206564</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02786610727302545</v>
+        <v>0.0244027236389451</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1752101247.272718</v>
+        <v>1705561946.066135</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1181848552436436</v>
+        <v>0.1434392552958921</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0382558873287497</v>
+        <v>0.04593947919566339</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4567285458.434596</v>
+        <v>4985477682.193103</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08805517625850547</v>
+        <v>0.08331912326733239</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04118551957631072</v>
+        <v>0.03726237036850433</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>44</v>
+      </c>
+      <c r="J63" t="n">
+        <v>88</v>
+      </c>
+      <c r="K63" t="n">
+        <v>158.3277885301218</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4395975906.035066</v>
+        <v>3359707200.528475</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1730888802842571</v>
+        <v>0.1620434563276244</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03478252134331777</v>
+        <v>0.03305559345524823</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>44</v>
+      </c>
+      <c r="J64" t="n">
+        <v>88</v>
+      </c>
+      <c r="K64" t="n">
+        <v>124.0106341576732</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3951850138.064713</v>
+        <v>4998625571.656871</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1482738194171377</v>
+        <v>0.1141936640807711</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02004191893767402</v>
+        <v>0.03167265792844106</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>71</v>
+      </c>
+      <c r="J65" t="n">
+        <v>89</v>
+      </c>
+      <c r="K65" t="n">
+        <v>176.2927181795807</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5442515147.524316</v>
+        <v>4502992540.732066</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1566028819923155</v>
+        <v>0.1014302627711817</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04993033584614195</v>
+        <v>0.04818647800163774</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>44</v>
+      </c>
+      <c r="J66" t="n">
+        <v>88</v>
+      </c>
+      <c r="K66" t="n">
+        <v>164.6928002918209</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3177234443.854077</v>
+        <v>3456709513.88046</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08547722165699403</v>
+        <v>0.07608239709618499</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05017614281686378</v>
+        <v>0.05016607750094809</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4844669845.625004</v>
+        <v>4068565554.445807</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1197887616539843</v>
+        <v>0.1370442067741401</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03726904667040441</v>
+        <v>0.03631089398051222</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>44</v>
+      </c>
+      <c r="J68" t="n">
+        <v>89</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2323083061.101217</v>
+        <v>1593719018.973616</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1445587968115383</v>
+        <v>0.174420503359633</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04035626111959525</v>
+        <v>0.04779569398241372</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3487980100.244902</v>
+        <v>2286154226.089947</v>
       </c>
       <c r="F70" t="n">
-        <v>0.102108962433059</v>
+        <v>0.08642222445782824</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03275909006912549</v>
+        <v>0.04157849628834354</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2946,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5250187659.232368</v>
+        <v>3678774538.595822</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1264753866963653</v>
+        <v>0.1564191849422049</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02333781551443206</v>
+        <v>0.02531210495708582</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>73</v>
+      </c>
+      <c r="J71" t="n">
+        <v>89</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1374133079.295633</v>
+        <v>2236966924.923907</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07362820258658591</v>
+        <v>0.07969166452215172</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03511883900891317</v>
+        <v>0.04332822901626411</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2921583521.619239</v>
+        <v>2855061399.791395</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1005314874233034</v>
+        <v>0.1102151747665795</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04260354236732287</v>
+        <v>0.0508032915178301</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3025517446.079139</v>
+        <v>3781663561.533446</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1155484467903072</v>
+        <v>0.1786115233496089</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02442043759607477</v>
+        <v>0.03055304230491086</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>89</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1842390649.118763</v>
+        <v>1756173273.337826</v>
       </c>
       <c r="F75" t="n">
-        <v>0.132830494938386</v>
+        <v>0.1352609615524972</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0323698580713612</v>
+        <v>0.03309209773028757</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4337443982.474649</v>
+        <v>5095599843.011981</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1015652272087395</v>
+        <v>0.09128436895128182</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02479442505290266</v>
+        <v>0.02175571676740086</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>41</v>
+      </c>
+      <c r="J76" t="n">
+        <v>88</v>
+      </c>
+      <c r="K76" t="n">
+        <v>140.6377014449227</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2219111973.062167</v>
+        <v>1502622790.852612</v>
       </c>
       <c r="F77" t="n">
-        <v>0.142879779031373</v>
+        <v>0.1443356957701428</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03067414705348612</v>
+        <v>0.02411780336784427</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3193281349.691106</v>
+        <v>4159744269.980785</v>
       </c>
       <c r="F78" t="n">
-        <v>0.108545132112356</v>
+        <v>0.1225856597804928</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04734360879607174</v>
+        <v>0.0549920640393215</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>43</v>
+      </c>
+      <c r="J78" t="n">
+        <v>89</v>
+      </c>
+      <c r="K78" t="n">
+        <v>180.373693264423</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1532331526.114697</v>
+        <v>1619202163.838947</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1213122581005519</v>
+        <v>0.17325585304793</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03771798306080977</v>
+        <v>0.03100256670878191</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5116940936.733443</v>
+        <v>5617611025.413014</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08769933565618973</v>
+        <v>0.08860058876250125</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02777771788187193</v>
+        <v>0.02359022232285915</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>42</v>
+      </c>
+      <c r="J80" t="n">
+        <v>89</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3944912318.507513</v>
+        <v>3747700319.552371</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1001190384700547</v>
+        <v>0.09813006209155715</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02348880172432403</v>
+        <v>0.02241111116302866</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>40</v>
+      </c>
+      <c r="J81" t="n">
+        <v>89</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4331013479.217589</v>
+        <v>3760247584.855359</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1596045438436168</v>
+        <v>0.2012745455983934</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02098098358212215</v>
+        <v>0.02350446977163772</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>57</v>
+      </c>
+      <c r="J82" t="n">
+        <v>88</v>
+      </c>
+      <c r="K82" t="n">
+        <v>171.8713927359344</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2011763384.784699</v>
+        <v>1605935491.681697</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1061953726389466</v>
+        <v>0.1235358012423067</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03585434174994413</v>
+        <v>0.0433848607035324</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1808276543.600594</v>
+        <v>2136139312.090372</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08481109733112092</v>
+        <v>0.1094267962200642</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03197592593232011</v>
+        <v>0.0449401504724271</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3442,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2219877347.820545</v>
+        <v>3129776708.340931</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1474889563446542</v>
+        <v>0.129174067389328</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04667292689070481</v>
+        <v>0.04148595406659226</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>88</v>
+      </c>
+      <c r="K85" t="n">
+        <v>122.926866984208</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1696091930.791991</v>
+        <v>2634164248.131305</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1567061563210722</v>
+        <v>0.1622346615074592</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01940929736424341</v>
+        <v>0.02323533072097813</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1410658841.882867</v>
+        <v>1069260284.342244</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1254811345953713</v>
+        <v>0.1610412909003687</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03911111557950359</v>
+        <v>0.03715020842379257</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2720035087.771286</v>
+        <v>2560634207.015767</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1415826612793274</v>
+        <v>0.1274241012390176</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02932897170103893</v>
+        <v>0.0316749390915866</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2774024054.567078</v>
+        <v>2606347186.34139</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1232786220122811</v>
+        <v>0.1000853822063006</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02739638292482686</v>
+        <v>0.04168167321015109</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1696539613.241567</v>
+        <v>2107001199.922134</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08855065589934454</v>
+        <v>0.1050988107055318</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04877116657863267</v>
+        <v>0.03521736845322194</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1658626734.244885</v>
+        <v>1427412533.612518</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1710288023205212</v>
+        <v>0.1735403366148251</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05678328408245743</v>
+        <v>0.05285473845883489</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1829299036.891895</v>
+        <v>2785203877.981328</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1055885908999132</v>
+        <v>0.09670163988992374</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02973806942567011</v>
+        <v>0.04264872378638102</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3194775494.874667</v>
+        <v>4390957011.536494</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1167619389494431</v>
+        <v>0.09245972167430583</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04903171037078649</v>
+        <v>0.04242266605756528</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>40</v>
+      </c>
+      <c r="J93" t="n">
+        <v>89</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2391377010.580965</v>
+        <v>1551827453.384272</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1265074712555724</v>
+        <v>0.1642073186429682</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03990359224214386</v>
+        <v>0.02883750043150492</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2356695066.158118</v>
+        <v>2255351178.16752</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1368579133676252</v>
+        <v>0.09840626884011437</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04319153996539014</v>
+        <v>0.04179984215547163</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1516580244.42035</v>
+        <v>2156497335.995964</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1123819994753259</v>
+        <v>0.1119298284035368</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04620826621601375</v>
+        <v>0.04059965572578311</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3865537330.877546</v>
+        <v>3542859146.879552</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1752648159463754</v>
+        <v>0.1496410960604697</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0229277198781062</v>
+        <v>0.02893002646445866</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>42</v>
+      </c>
+      <c r="J97" t="n">
+        <v>89</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3569813949.329366</v>
+        <v>3087646088.515422</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1297638611568521</v>
+        <v>0.09515355585763907</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02315887886947969</v>
+        <v>0.02775698039015043</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>86</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2145490667.884848</v>
+        <v>2475356491.898327</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09430410185281517</v>
+        <v>0.09735246076645844</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02953868536985027</v>
+        <v>0.02474084923659579</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3454756904.13218</v>
+        <v>3056500180.172706</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1739056497089328</v>
+        <v>0.1725224126458307</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02330459203267866</v>
+        <v>0.01795142793398608</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>36</v>
+      </c>
+      <c r="J100" t="n">
+        <v>88</v>
+      </c>
+      <c r="K100" t="n">
+        <v>100.5632045285959</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3371895682.684219</v>
+        <v>3232067903.643622</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2057078240934207</v>
+        <v>0.1758542476435061</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0461349249200458</v>
+        <v>0.03845610150411648</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
